--- a/app/src/main/assets/daily_word.xlsx
+++ b/app/src/main/assets/daily_word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_spa_study_app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B911A3F-82F4-4DF5-AD99-531931ED6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB47598-660D-49AE-A4C2-DC5ABFD97675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67170" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4263B891-630D-40DF-9C1A-1DC01B50E521}"/>
   </bookViews>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="234">
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="226">
   <si>
     <t>소유격의 위치는?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(an) opening s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채우다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적격의, 자격 있는</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매우, 대단히</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj,n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전문적인, 직업의 / 전문가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n,v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>면접, 면접을 보다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,10 +594,6 @@
   </si>
   <si>
     <t>~이 없다, 부족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v,n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1337,1198 +1305,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B9D1C-4AB8-4506-8B25-1CD04C82F8A8}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.25" customWidth="1"/>
     <col min="2" max="2" width="18.58203125" customWidth="1"/>
-    <col min="3" max="3" width="6.4140625" customWidth="1"/>
-    <col min="4" max="4" width="36.25" customWidth="1"/>
-    <col min="5" max="5" width="66.9140625" customWidth="1"/>
-    <col min="6" max="6" width="71.25" customWidth="1"/>
+    <col min="3" max="3" width="66.9140625" customWidth="1"/>
+    <col min="4" max="4" width="71.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>1</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D24" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>28</v>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>84</v>
       </c>
       <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>30</v>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>103</v>
       </c>
       <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
         <v>109</v>
       </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
         <v>110</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>115</v>
       </c>
-      <c r="F30" t="s">
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D33" t="s">
         <v>117</v>
       </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
         <v>118</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C34" t="s">
         <v>119</v>
       </c>
-      <c r="F32" t="s">
+      <c r="D34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
         <v>121</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C35" t="s">
         <v>123</v>
       </c>
-      <c r="F33" t="s">
+      <c r="D35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
         <v>125</v>
       </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C36" t="s">
         <v>134</v>
       </c>
-      <c r="E34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
         <v>132</v>
       </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
         <v>141</v>
       </c>
-      <c r="F36" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="C39" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D39" t="s">
         <v>145</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>147</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B40" t="s">
         <v>146</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C40" t="s">
         <v>148</v>
       </c>
-      <c r="F38" t="s">
+      <c r="D40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
         <v>150</v>
       </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C41" t="s">
         <v>152</v>
       </c>
-      <c r="F39" t="s">
+      <c r="D41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
         <v>154</v>
       </c>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C42" t="s">
         <v>156</v>
       </c>
-      <c r="F40" t="s">
+      <c r="D42" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
         <v>158</v>
       </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C43" t="s">
         <v>160</v>
       </c>
-      <c r="F41" t="s">
+      <c r="D43" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
         <v>162</v>
       </c>
-      <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
         <v>163</v>
       </c>
-      <c r="E42" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C45" t="s">
         <v>168</v>
       </c>
-      <c r="F43" t="s">
+      <c r="D45" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
         <v>170</v>
       </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C46" t="s">
         <v>172</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
         <v>174</v>
       </c>
-      <c r="F44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C47" t="s">
         <v>176</v>
       </c>
-      <c r="F45" t="s">
+      <c r="D47" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
         <v>178</v>
       </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C48" t="s">
         <v>180</v>
       </c>
-      <c r="F46" t="s">
+      <c r="D48" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
         <v>182</v>
       </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C49" t="s">
         <v>184</v>
       </c>
-      <c r="F47" t="s">
+      <c r="D49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s">
         <v>186</v>
       </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C50" t="s">
         <v>188</v>
       </c>
-      <c r="F48" t="s">
+      <c r="D50" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
         <v>190</v>
       </c>
-      <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C51" t="s">
         <v>192</v>
       </c>
-      <c r="F49" t="s">
+      <c r="D51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" t="s">
         <v>194</v>
       </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C52" t="s">
         <v>196</v>
       </c>
-      <c r="F50" t="s">
+      <c r="D52" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
         <v>198</v>
       </c>
-      <c r="C51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
         <v>200</v>
       </c>
-      <c r="F51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" t="s">
         <v>202</v>
       </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
         <v>204</v>
       </c>
-      <c r="F52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
         <v>206</v>
       </c>
-      <c r="C53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
         <v>207</v>
       </c>
-      <c r="E53" t="s">
-        <v>220</v>
-      </c>
-      <c r="F53" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" t="s">
         <v>208</v>
       </c>
-      <c r="C54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>209</v>
-      </c>
-      <c r="E54" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" t="s">
-        <v>211</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C59" t="s">
         <v>224</v>
       </c>
-      <c r="F55" t="s">
+      <c r="D59" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" t="s">
-        <v>226</v>
-      </c>
-      <c r="F56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" t="s">
-        <v>219</v>
-      </c>
-      <c r="E58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" t="s">
-        <v>232</v>
-      </c>
-      <c r="F59" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2559,16 +2173,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1">
         <v>0</v>

--- a/app/src/main/assets/daily_word.xlsx
+++ b/app/src/main/assets/daily_word.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_spa_study_app\app\src\main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spa_study_app\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB47598-660D-49AE-A4C2-DC5ABFD97675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC1096-D794-4617-B704-BCB43C828FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67170" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4263B891-630D-40DF-9C1A-1DC01B50E521}"/>
+    <workbookView xWindow="6760" yWindow="940" windowWidth="20780" windowHeight="20040" xr2:uid="{4263B891-630D-40DF-9C1A-1DC01B50E521}"/>
   </bookViews>
   <sheets>
     <sheet name="word 예시" sheetId="1" r:id="rId1"/>
@@ -1308,15 +1308,15 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.25" customWidth="1"/>
     <col min="2" max="2" width="18.58203125" customWidth="1"/>
-    <col min="3" max="3" width="66.9140625" customWidth="1"/>
-    <col min="4" max="4" width="71.25" customWidth="1"/>
+    <col min="3" max="3" width="71.25" customWidth="1"/>
+    <col min="4" max="4" width="66.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -1327,10 +1327,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1355,10 +1355,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1369,10 +1369,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1383,10 +1383,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1397,10 +1397,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1411,10 +1411,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1439,10 +1439,10 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1453,10 +1453,10 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1467,10 +1467,10 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1481,10 +1481,10 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1495,10 +1495,10 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1509,10 +1509,10 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1523,10 +1523,10 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1537,10 +1537,10 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -1551,10 +1551,10 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -1565,10 +1565,10 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -1579,10 +1579,10 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -1621,10 +1621,10 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
         <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -1635,10 +1635,10 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -1649,10 +1649,10 @@
         <v>76</v>
       </c>
       <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -1663,10 +1663,10 @@
         <v>80</v>
       </c>
       <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -1677,10 +1677,10 @@
         <v>81</v>
       </c>
       <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
         <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1691,10 +1691,10 @@
         <v>83</v>
       </c>
       <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
         <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -1705,10 +1705,10 @@
         <v>85</v>
       </c>
       <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
         <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1719,10 +1719,10 @@
         <v>86</v>
       </c>
       <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
         <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -1733,10 +1733,10 @@
         <v>102</v>
       </c>
       <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
         <v>108</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -1747,10 +1747,10 @@
         <v>104</v>
       </c>
       <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
         <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -1761,10 +1761,10 @@
         <v>110</v>
       </c>
       <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" t="s">
         <v>112</v>
-      </c>
-      <c r="D32" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -1775,10 +1775,10 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
         <v>116</v>
-      </c>
-      <c r="D33" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -1789,10 +1789,10 @@
         <v>118</v>
       </c>
       <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
         <v>119</v>
-      </c>
-      <c r="D34" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -1803,10 +1803,10 @@
         <v>121</v>
       </c>
       <c r="C35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
         <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -1817,10 +1817,10 @@
         <v>125</v>
       </c>
       <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
         <v>134</v>
-      </c>
-      <c r="D36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -1831,10 +1831,10 @@
         <v>132</v>
       </c>
       <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
         <v>136</v>
-      </c>
-      <c r="D37" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1845,10 +1845,10 @@
         <v>138</v>
       </c>
       <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
         <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -1859,10 +1859,10 @@
         <v>142</v>
       </c>
       <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
         <v>144</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -1873,10 +1873,10 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
         <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -1887,10 +1887,10 @@
         <v>150</v>
       </c>
       <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
         <v>152</v>
-      </c>
-      <c r="D41" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -1901,10 +1901,10 @@
         <v>154</v>
       </c>
       <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
         <v>156</v>
-      </c>
-      <c r="D42" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -1915,10 +1915,10 @@
         <v>158</v>
       </c>
       <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
         <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1929,10 +1929,10 @@
         <v>162</v>
       </c>
       <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" t="s">
         <v>166</v>
-      </c>
-      <c r="D44" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -1943,10 +1943,10 @@
         <v>163</v>
       </c>
       <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
         <v>168</v>
-      </c>
-      <c r="D45" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -1957,10 +1957,10 @@
         <v>170</v>
       </c>
       <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" t="s">
         <v>172</v>
-      </c>
-      <c r="D46" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -1971,10 +1971,10 @@
         <v>174</v>
       </c>
       <c r="C47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" t="s">
         <v>176</v>
-      </c>
-      <c r="D47" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -1985,10 +1985,10 @@
         <v>178</v>
       </c>
       <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" t="s">
         <v>180</v>
-      </c>
-      <c r="D48" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -1999,10 +1999,10 @@
         <v>182</v>
       </c>
       <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
         <v>184</v>
-      </c>
-      <c r="D49" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -2013,10 +2013,10 @@
         <v>186</v>
       </c>
       <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
         <v>188</v>
-      </c>
-      <c r="D50" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -2027,10 +2027,10 @@
         <v>190</v>
       </c>
       <c r="C51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" t="s">
         <v>192</v>
-      </c>
-      <c r="D51" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -2041,10 +2041,10 @@
         <v>194</v>
       </c>
       <c r="C52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" t="s">
         <v>196</v>
-      </c>
-      <c r="D52" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -2055,10 +2055,10 @@
         <v>198</v>
       </c>
       <c r="C53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" t="s">
         <v>212</v>
-      </c>
-      <c r="D53" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -2069,10 +2069,10 @@
         <v>200</v>
       </c>
       <c r="C54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" t="s">
         <v>214</v>
-      </c>
-      <c r="D54" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -2083,10 +2083,10 @@
         <v>202</v>
       </c>
       <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
         <v>216</v>
-      </c>
-      <c r="D55" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -2097,10 +2097,10 @@
         <v>204</v>
       </c>
       <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
         <v>218</v>
-      </c>
-      <c r="D56" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -2111,10 +2111,10 @@
         <v>206</v>
       </c>
       <c r="C57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" t="s">
         <v>220</v>
-      </c>
-      <c r="D57" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -2125,10 +2125,10 @@
         <v>207</v>
       </c>
       <c r="C58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" t="s">
         <v>222</v>
-      </c>
-      <c r="D58" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -2139,10 +2139,10 @@
         <v>208</v>
       </c>
       <c r="C59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" t="s">
         <v>224</v>
-      </c>
-      <c r="D59" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
